--- a/ProjectSteps/ProjectStep14/images/Sprint_Burndown_Chart_OMAF.xlsx
+++ b/ProjectSteps/ProjectStep14/images/Sprint_Burndown_Chart_OMAF.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c1198054b2e9950c/Documents/MSSA/Project/Project Step 14/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c1198054b2e9950c/Documents/MSSA/Project Step/Project Step 14/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="8_{FF47BA1C-2D43-4AE0-86A2-BC51DCBC7936}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{546978AB-6565-4678-B62E-931E88C333E2}"/>
+  <xr:revisionPtr revIDLastSave="81" documentId="8_{FF47BA1C-2D43-4AE0-86A2-BC51DCBC7936}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1695290C-4A16-44E2-A8B3-BB169D430993}"/>
   <bookViews>
-    <workbookView xWindow="-19280" yWindow="-6690" windowWidth="19360" windowHeight="10360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coria Burndown Chart Template" sheetId="5" r:id="rId1"/>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>Day 1</t>
   </si>
@@ -206,36 +206,6 @@
     <t>SPRINT BURNDOWN CHART</t>
   </si>
   <si>
-    <t>Jul 11th</t>
-  </si>
-  <si>
-    <t>Jul 12th</t>
-  </si>
-  <si>
-    <t>Jul 13th</t>
-  </si>
-  <si>
-    <t>Jul 14th</t>
-  </si>
-  <si>
-    <t>Jul 15th</t>
-  </si>
-  <si>
-    <t>Jul 18th</t>
-  </si>
-  <si>
-    <t>Jul 19th</t>
-  </si>
-  <si>
-    <t>Jul 20th</t>
-  </si>
-  <si>
-    <t>Jul 21st</t>
-  </si>
-  <si>
-    <t>Jul 22nd</t>
-  </si>
-  <si>
     <t>Backlog Category</t>
   </si>
   <si>
@@ -251,25 +221,28 @@
     <t>Unable to create IW, JC, and MC button</t>
   </si>
   <si>
-    <t>Create profile page for each user</t>
-  </si>
-  <si>
     <t>Create a login functionality</t>
   </si>
   <si>
-    <t>Add a pie chart to Job Status</t>
-  </si>
-  <si>
     <t>Create more Tables</t>
   </si>
   <si>
     <t>Implement security protocol for SQL database appsettings.json file</t>
   </si>
   <si>
-    <t xml:space="preserve">Use SportStore App "Add to cart" button when an inspector is ready to sign off MAFs. </t>
-  </si>
-  <si>
-    <t>Implement text messaging</t>
+    <t>Project Step</t>
+  </si>
+  <si>
+    <t>Create a burndown chart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change the divisor to days of remaining work to </t>
+  </si>
+  <si>
+    <t>finish sprint. Ex., if 5 days of work, divide to 5.</t>
+  </si>
+  <si>
+    <t>Add MCN to Workload</t>
   </si>
 </sst>
 </file>
@@ -433,7 +406,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -710,19 +683,6 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -783,7 +743,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -859,29 +819,23 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -903,9 +857,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="3" fillId="3" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="40% - Accent2" xfId="1" builtinId="35"/>
@@ -988,44 +942,58 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Coria Burndown Chart Template'!$E$18:$O$18</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Coria Burndown Chart Template'!$E$18:$O$18</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Coria Burndown Chart Template'!$E$18:$I$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>14</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1085,44 +1053,58 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Coria Burndown Chart Template'!$E$19:$O$19</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Coria Burndown Chart Template'!$E$19:$O$19</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Coria Burndown Chart Template'!$E$19:$I$19</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>14</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.6</c:v>
+                  <c:v>13.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.2</c:v>
+                  <c:v>10.199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.7999999999999989</c:v>
+                  <c:v>6.7999999999999989</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.3999999999999986</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.9999999999999982</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.5999999999999979</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.1999999999999975</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.7999999999999976</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.3999999999999977</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-2.2204460492503131E-15</c:v>
+                  <c:v>3.399999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1623,8 +1605,8 @@
   </sheetPr>
   <dimension ref="A1:W47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R51" sqref="R51"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1717,41 +1699,41 @@
       <c r="A4" s="34"/>
       <c r="B4" s="38"/>
       <c r="C4" s="63" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D4" s="65" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="46"/>
-      <c r="F4" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="O4" s="49" t="s">
-        <v>29</v>
+      <c r="F4" s="67">
+        <v>43943</v>
+      </c>
+      <c r="G4" s="67">
+        <v>43944</v>
+      </c>
+      <c r="H4" s="67">
+        <v>43945</v>
+      </c>
+      <c r="I4" s="67">
+        <v>43946</v>
+      </c>
+      <c r="J4" s="67">
+        <v>43947</v>
+      </c>
+      <c r="K4" s="67">
+        <v>43948</v>
+      </c>
+      <c r="L4" s="67">
+        <v>43949</v>
+      </c>
+      <c r="M4" s="67">
+        <v>43950</v>
+      </c>
+      <c r="N4" s="67">
+        <v>43951</v>
+      </c>
+      <c r="O4" s="67">
+        <v>43952</v>
       </c>
       <c r="P4" s="39"/>
       <c r="Q4" s="39"/>
@@ -1813,15 +1795,17 @@
       <c r="A6" s="35"/>
       <c r="B6" s="17"/>
       <c r="C6" s="25" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="E6" s="57">
+        <v>4</v>
+      </c>
+      <c r="F6" s="5">
+        <v>4</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -1846,10 +1830,10 @@
       <c r="A7" s="35"/>
       <c r="B7" s="17"/>
       <c r="C7" s="25" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E7" s="5">
         <v>3</v>
@@ -1877,10 +1861,10 @@
       <c r="A8" s="35"/>
       <c r="B8" s="17"/>
       <c r="C8" s="25" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E8" s="5">
         <v>1</v>
@@ -1908,12 +1892,12 @@
       <c r="A9" s="35"/>
       <c r="B9" s="17"/>
       <c r="C9" s="25" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="67">
+        <v>27</v>
+      </c>
+      <c r="E9" s="57">
         <v>4</v>
       </c>
       <c r="F9" s="1"/>
@@ -1939,12 +1923,12 @@
       <c r="A10" s="35"/>
       <c r="B10" s="17"/>
       <c r="C10" s="25" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="67">
+        <v>24</v>
+      </c>
+      <c r="E10" s="57">
         <v>2</v>
       </c>
       <c r="F10" s="1"/>
@@ -1970,16 +1954,18 @@
       <c r="A11" s="35"/>
       <c r="B11" s="17"/>
       <c r="C11" s="25" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="67">
-        <v>1</v>
+        <v>32</v>
+      </c>
+      <c r="E11" s="57">
+        <v>3</v>
       </c>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1">
+        <v>-3</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -2000,15 +1986,9 @@
     <row r="12" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="35"/>
       <c r="B12" s="17"/>
-      <c r="C12" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="67">
-        <v>1</v>
-      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="57"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -2031,25 +2011,19 @@
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="35"/>
       <c r="B13" s="17"/>
-      <c r="C13" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="67">
-        <v>1</v>
-      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="57"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="69"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="59"/>
       <c r="P13" s="14"/>
       <c r="Q13" s="17"/>
       <c r="R13" s="9"/>
@@ -2068,17 +2042,17 @@
       <c r="B14" s="17"/>
       <c r="C14" s="25"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="67"/>
+      <c r="E14" s="57"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="67"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="69"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="59"/>
       <c r="P14" s="14"/>
       <c r="Q14" s="17"/>
       <c r="R14" s="8"/>
@@ -2097,17 +2071,17 @@
       <c r="B15" s="17"/>
       <c r="C15" s="25"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="67"/>
+      <c r="E15" s="57"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="69"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="59"/>
       <c r="P15" s="14"/>
       <c r="Q15" s="17"/>
       <c r="R15" s="13"/>
@@ -2129,14 +2103,14 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="69"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="59"/>
       <c r="P16" s="14"/>
       <c r="Q16" s="17"/>
       <c r="R16" s="14"/>
@@ -2174,53 +2148,53 @@
     <row r="18" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="35"/>
       <c r="B18" s="17"/>
-      <c r="C18" s="50"/>
+      <c r="C18" s="47"/>
       <c r="D18" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="52">
+      <c r="E18" s="49">
         <f>SUM(E6:E17)</f>
-        <v>14</v>
-      </c>
-      <c r="F18" s="53">
+        <v>17</v>
+      </c>
+      <c r="F18" s="50">
         <f t="shared" ref="F18:O18" si="0">E18-SUM(F6:F17)</f>
-        <v>14</v>
-      </c>
-      <c r="G18" s="53">
+        <v>13</v>
+      </c>
+      <c r="G18" s="50">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="H18" s="53">
+        <v>16</v>
+      </c>
+      <c r="H18" s="50">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="I18" s="53">
+        <v>16</v>
+      </c>
+      <c r="I18" s="50">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="J18" s="53">
+        <v>16</v>
+      </c>
+      <c r="J18" s="50">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="K18" s="53">
+        <v>16</v>
+      </c>
+      <c r="K18" s="50">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="L18" s="53">
+        <v>16</v>
+      </c>
+      <c r="L18" s="50">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="M18" s="53">
+        <v>16</v>
+      </c>
+      <c r="M18" s="50">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="N18" s="53">
+        <v>16</v>
+      </c>
+      <c r="N18" s="50">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="O18" s="54">
+        <v>16</v>
+      </c>
+      <c r="O18" s="51">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="P18" s="14"/>
       <c r="Q18" s="14"/>
@@ -2234,56 +2208,58 @@
     <row r="19" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="35"/>
       <c r="B19" s="17"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="55" t="s">
+      <c r="C19" s="48"/>
+      <c r="D19" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="56">
+      <c r="E19" s="53">
         <f>E18</f>
-        <v>14</v>
-      </c>
-      <c r="F19" s="57">
-        <f>E19-($E$18/10)</f>
-        <v>12.6</v>
-      </c>
-      <c r="G19" s="57">
-        <f t="shared" ref="G19:M19" si="1">F19-($E$18/10)</f>
-        <v>11.2</v>
-      </c>
-      <c r="H19" s="57">
+        <v>17</v>
+      </c>
+      <c r="F19" s="54">
+        <f>E19-($E$18/5)</f>
+        <v>13.6</v>
+      </c>
+      <c r="G19" s="54">
+        <f>F19-($E$18/5)</f>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="H19" s="54">
+        <f>G19-($E$18/5)</f>
+        <v>6.7999999999999989</v>
+      </c>
+      <c r="I19" s="54">
+        <f>H19-($E$18/5)</f>
+        <v>3.399999999999999</v>
+      </c>
+      <c r="J19" s="54">
+        <f>I19-($E$18/5)</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="54">
+        <f>J19-($E$18/5)</f>
+        <v>-3.4</v>
+      </c>
+      <c r="L19" s="54">
+        <f t="shared" ref="G19:M19" si="1">K19-($E$18/10)</f>
+        <v>-5.0999999999999996</v>
+      </c>
+      <c r="M19" s="54">
         <f t="shared" si="1"/>
-        <v>9.7999999999999989</v>
-      </c>
-      <c r="I19" s="57">
-        <f t="shared" si="1"/>
-        <v>8.3999999999999986</v>
-      </c>
-      <c r="J19" s="57">
-        <f t="shared" si="1"/>
-        <v>6.9999999999999982</v>
-      </c>
-      <c r="K19" s="57">
-        <f t="shared" si="1"/>
-        <v>5.5999999999999979</v>
-      </c>
-      <c r="L19" s="57">
-        <f t="shared" si="1"/>
-        <v>4.1999999999999975</v>
-      </c>
-      <c r="M19" s="57">
-        <f t="shared" si="1"/>
-        <v>2.7999999999999976</v>
-      </c>
-      <c r="N19" s="57">
+        <v>-6.8</v>
+      </c>
+      <c r="N19" s="54">
         <f t="shared" ref="N19:O19" si="2">M19-($E$18/10)</f>
-        <v>1.3999999999999977</v>
-      </c>
-      <c r="O19" s="58">
+        <v>-8.5</v>
+      </c>
+      <c r="O19" s="55">
         <f t="shared" si="2"/>
-        <v>-2.2204460492503131E-15</v>
+        <v>-10.199999999999999</v>
       </c>
       <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
+      <c r="Q19" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="R19" s="14"/>
       <c r="S19" s="14"/>
       <c r="T19" s="14"/>
@@ -2308,7 +2284,9 @@
       <c r="N20" s="36"/>
       <c r="O20" s="36"/>
       <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
+      <c r="Q20" s="14" t="s">
+        <v>31</v>
+      </c>
       <c r="R20" s="14"/>
       <c r="S20" s="14"/>
       <c r="T20" s="14"/>
@@ -2345,17 +2323,17 @@
       <c r="A22" s="35"/>
       <c r="B22" s="17"/>
       <c r="C22" s="23"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="59"/>
-      <c r="M22" s="59"/>
-      <c r="N22" s="59"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
       <c r="O22" s="42"/>
       <c r="P22" s="14"/>
       <c r="Q22" s="14"/>
@@ -3007,7 +2985,7 @@
       <formula1>0</formula1>
       <formula2>1000000</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6:O16 L17 O17 F6:K17 R14:R15" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6:O16 L17 O17 R14:R15 F6:K17" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>-100</formula1>
       <formula2>1000000</formula2>
     </dataValidation>
